--- a/Scripts/users.xlsx
+++ b/Scripts/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>UID</t>
   </si>
@@ -296,18 +296,6 @@
   </si>
   <si>
     <t>aaaaaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是是是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>少的地方</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1400,29 +1388,6 @@
         <v>101</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>11002</v>
-      </c>
-      <c r="B32">
-        <v>18755604123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
         <v>0</v>
       </c>
     </row>

--- a/Scripts/users.xlsx
+++ b/Scripts/users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>UID</t>
   </si>
@@ -296,6 +296,14 @@
   </si>
   <si>
     <t>aaaaaa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜色#5500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -701,185 +709,185 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="16.5">
       <c r="A2">
-        <v>136351</v>
+        <v>124872</v>
       </c>
       <c r="B2">
-        <v>18708125500</v>
+        <v>18708125571</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>11491</v>
       </c>
       <c r="G2">
-        <v>1003</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>135074</v>
+        <v>131008</v>
       </c>
       <c r="B3">
-        <v>18708125570</v>
+        <v>18708125572</v>
       </c>
       <c r="C3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>313</v>
+        <v>989894</v>
       </c>
       <c r="G3">
-        <v>35793514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>124872</v>
+        <v>125098</v>
       </c>
       <c r="B4">
-        <v>18708125571</v>
+        <v>18708125573</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11491</v>
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>101</v>
       </c>
       <c r="G4">
-        <v>95000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>131008</v>
+        <v>124871</v>
       </c>
       <c r="B5">
-        <v>18708125572</v>
+        <v>18708125574</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>989894</v>
+        <v>10468</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>125098</v>
+        <v>124407</v>
       </c>
       <c r="B6">
-        <v>18708125573</v>
+        <v>18708125575</v>
       </c>
       <c r="C6" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>101</v>
+        <v>6843</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>99100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>124871</v>
+        <v>133836</v>
       </c>
       <c r="B7">
-        <v>18708125574</v>
+        <v>18708125577</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>10468</v>
+        <v>200701</v>
       </c>
       <c r="G7">
-        <v>99000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>124407</v>
+        <v>135064</v>
       </c>
       <c r="B8">
-        <v>18708125575</v>
+        <v>18708125578</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>6843</v>
+        <v>1010</v>
       </c>
       <c r="G8">
-        <v>99100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>133836</v>
+        <v>133946</v>
       </c>
       <c r="B9">
-        <v>18708125577</v>
+        <v>18708125579</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>200701</v>
+        <v>210</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -887,22 +895,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>135064</v>
+        <v>135119</v>
       </c>
       <c r="B10">
-        <v>18708125578</v>
+        <v>18708125580</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>1010</v>
+        <v>216</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -910,45 +918,45 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>133946</v>
+        <v>135456</v>
       </c>
       <c r="B11">
-        <v>18708125579</v>
+        <v>18708125581</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>135119</v>
+        <v>135457</v>
       </c>
       <c r="B12">
-        <v>18708125580</v>
+        <v>18708125582</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>216</v>
+        <v>1098</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -956,45 +964,45 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>135456</v>
+        <v>135458</v>
       </c>
       <c r="B13">
-        <v>18708125581</v>
+        <v>18708125583</v>
       </c>
       <c r="C13" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="G13">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>135457</v>
+        <v>135459</v>
       </c>
       <c r="B14">
-        <v>18708125582</v>
+        <v>18708125584</v>
       </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F14">
-        <v>1098</v>
+        <v>104</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1002,22 +1010,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>135458</v>
+        <v>136327</v>
       </c>
       <c r="B15">
-        <v>18708125583</v>
+        <v>18708125585</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15">
         <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15">
-        <v>101</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1025,22 +1033,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>135459</v>
+        <v>136328</v>
       </c>
       <c r="B16">
-        <v>18708125584</v>
+        <v>18708125586</v>
       </c>
       <c r="C16" t="s">
         <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1048,22 +1056,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>136327</v>
+        <v>136329</v>
       </c>
       <c r="B17">
-        <v>18708125585</v>
+        <v>18708125587</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F17">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1071,22 +1079,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>136328</v>
+        <v>136330</v>
       </c>
       <c r="B18">
-        <v>18708125586</v>
+        <v>18708125588</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1094,22 +1102,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>136329</v>
+        <v>136331</v>
       </c>
       <c r="B19">
-        <v>18708125587</v>
+        <v>18708125589</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F19">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1117,22 +1125,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>136330</v>
+        <v>136341</v>
       </c>
       <c r="B20">
-        <v>18708125588</v>
+        <v>18708125590</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F20">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1140,22 +1148,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>136331</v>
+        <v>136342</v>
       </c>
       <c r="B21">
-        <v>18708125589</v>
+        <v>18708125591</v>
       </c>
       <c r="C21" t="s">
         <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F21">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1163,22 +1171,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>136341</v>
+        <v>136343</v>
       </c>
       <c r="B22">
-        <v>18708125590</v>
+        <v>18708125592</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F22">
-        <v>61</v>
+        <v>575</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1186,22 +1194,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>136342</v>
+        <v>136344</v>
       </c>
       <c r="B23">
-        <v>18708125591</v>
+        <v>18708125593</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F23">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1209,22 +1217,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>136343</v>
+        <v>136345</v>
       </c>
       <c r="B24">
-        <v>18708125592</v>
+        <v>18708125594</v>
       </c>
       <c r="C24" t="s">
         <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F24">
-        <v>575</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1232,22 +1240,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>136344</v>
+        <v>136346</v>
       </c>
       <c r="B25">
-        <v>18708125593</v>
+        <v>18708125595</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1255,22 +1263,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>136345</v>
+        <v>136347</v>
       </c>
       <c r="B26">
-        <v>18708125594</v>
+        <v>18708125596</v>
       </c>
       <c r="C26" t="s">
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F26">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1278,22 +1286,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>136346</v>
+        <v>136348</v>
       </c>
       <c r="B27">
-        <v>18708125595</v>
+        <v>18708125597</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1301,22 +1309,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>136347</v>
+        <v>136349</v>
       </c>
       <c r="B28">
-        <v>18708125596</v>
+        <v>18708125598</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F28">
-        <v>141</v>
+        <v>790</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1324,22 +1332,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>136348</v>
+        <v>136350</v>
       </c>
       <c r="B29">
-        <v>18708125597</v>
+        <v>18708125599</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F29">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1347,48 +1355,25 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>136349</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>18708125598</v>
+        <v>18708125500</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F30">
-        <v>790</v>
+        <v>24</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>136350</v>
-      </c>
-      <c r="B31">
-        <v>18708125599</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31">
-        <v>101</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
